--- a/biology/Histoire de la zoologie et de la botanique/Louis_Beguin-Billecocq/Louis_Beguin-Billecocq.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Beguin-Billecocq/Louis_Beguin-Billecocq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Marie-Léonor Beguin-Billecocq, né le 3 juin 1865 à Paris 6e et mort le 1er avril 1957 à Nemours, est un entomologiste amateur et un attaché au bureau du cabinet du ministère des affaires étrangères.
 </t>
@@ -511,10 +523,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Paris 6e le 3 juin 1865 et mort à Nemours  le 1er avril 1957, il est le fils de Théophile Beguin-Billecocq et de Marie-Amélie Billecocq[1].
-Il épouse à Paris VIe le 18 février 1892 Clotilde Millon de Montherlant (1870-1944)[1], fille de Frédéric-François Millon de Montherlant (1835-1898), chef de service au ministère des Finances, et d'Élisabeth Bessirard de La Touche. Elle est la tante d'Henry de Montherlant, dont il devint le tuteur lorsque les parents de celui-ci moururent prématurément[2]. Ils n'eurent pas d'enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Paris 6e le 3 juin 1865 et mort à Nemours  le 1er avril 1957, il est le fils de Théophile Beguin-Billecocq et de Marie-Amélie Billecocq.
+Il épouse à Paris VIe le 18 février 1892 Clotilde Millon de Montherlant (1870-1944), fille de Frédéric-François Millon de Montherlant (1835-1898), chef de service au ministère des Finances, et d'Élisabeth Bessirard de La Touche. Elle est la tante d'Henry de Montherlant, dont il devint le tuteur lorsque les parents de celui-ci moururent prématurément. Ils n'eurent pas d'enfants.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licencié en droit, il est nommé en 1885 attaché au bureau du cabinet du ministre des Affaires étrangères à la division des fonds et de la comptabilité, puis en 1887 au bureau du chiffre[3].
-En 1903, il fait partie comme chargé de mission)[3] des accompagnants du président Émile Loubet et du ministre des affaires étrangères en voyage officiel en Algérie française et en Tunisie. Il écrivit à cette occasion un récit intitulé "Trois semaines en Algérie et en Tunisie à la suite du Président de la République et du ministre des Affaires étrangères".
-En 1917, il obtint sa mise à la retraite en tant que secrétaire d'ambassade honoraire[4]. 
-Entomologiste amateur, il a décrit plusieurs espèces de coléoptères qui portent son nom et constitua une collection qu'il légua au musée de Nemours. Il a écrit plusieurs opuscules et des études sur les insectes et fut membre correspondant de l'Institut de France[5] et de plusieurs sociétés savantes d'entomologie, notamment la Société entomologique de France[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licencié en droit, il est nommé en 1885 attaché au bureau du cabinet du ministre des Affaires étrangères à la division des fonds et de la comptabilité, puis en 1887 au bureau du chiffre.
+En 1903, il fait partie comme chargé de mission) des accompagnants du président Émile Loubet et du ministre des affaires étrangères en voyage officiel en Algérie française et en Tunisie. Il écrivit à cette occasion un récit intitulé "Trois semaines en Algérie et en Tunisie à la suite du Président de la République et du ministre des Affaires étrangères".
+En 1917, il obtint sa mise à la retraite en tant que secrétaire d'ambassade honoraire. 
+Entomologiste amateur, il a décrit plusieurs espèces de coléoptères qui portent son nom et constitua une collection qu'il légua au musée de Nemours. Il a écrit plusieurs opuscules et des études sur les insectes et fut membre correspondant de l'Institut de France et de plusieurs sociétés savantes d'entomologie, notamment la Société entomologique de France.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur (1904)
 Officier d'académie (1896)
